--- a/data/pca/factorExposure/factorExposure_2018-06-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01689128230553004</v>
+        <v>0.02180540593707963</v>
       </c>
       <c r="C2">
-        <v>0.02696790448062994</v>
+        <v>-0.01728576890785879</v>
       </c>
       <c r="D2">
-        <v>0.002964534340327198</v>
+        <v>-0.02391167877359141</v>
       </c>
       <c r="E2">
-        <v>-0.02394194731120698</v>
+        <v>-0.01414482659269039</v>
       </c>
       <c r="F2">
-        <v>-0.1143742879258599</v>
+        <v>0.01357275574376527</v>
       </c>
       <c r="G2">
-        <v>-0.07072941744172048</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04780127889653468</v>
+      </c>
+      <c r="H2">
+        <v>0.04739328917395791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0904246677728924</v>
+        <v>0.08574333608406283</v>
       </c>
       <c r="C3">
-        <v>0.01309089947447184</v>
+        <v>0.01596044696964344</v>
       </c>
       <c r="D3">
-        <v>-0.06546508893084041</v>
+        <v>-0.04833754547804089</v>
       </c>
       <c r="E3">
-        <v>-0.07347637903798401</v>
+        <v>-0.006892788177170422</v>
       </c>
       <c r="F3">
-        <v>-0.4084443295150009</v>
+        <v>0.01753813366694782</v>
       </c>
       <c r="G3">
-        <v>-0.2165073468998942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1775252359648898</v>
+      </c>
+      <c r="H3">
+        <v>0.1566679966005778</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04071774071611382</v>
+        <v>0.04885357940867226</v>
       </c>
       <c r="C4">
-        <v>-0.001461365178530086</v>
+        <v>-0.002191981511376458</v>
       </c>
       <c r="D4">
-        <v>0.02505652569045779</v>
+        <v>-0.05191425452338069</v>
       </c>
       <c r="E4">
-        <v>0.04166673589285739</v>
+        <v>0.0216872916663135</v>
       </c>
       <c r="F4">
-        <v>-0.08077894876041701</v>
+        <v>0.05613247205811142</v>
       </c>
       <c r="G4">
-        <v>-0.04996734982800027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03002080604655707</v>
+      </c>
+      <c r="H4">
+        <v>0.05203779229299466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02765804736948031</v>
+        <v>0.02927739208727778</v>
       </c>
       <c r="C6">
-        <v>0.01103983699812915</v>
+        <v>-0.0001194742120997507</v>
       </c>
       <c r="D6">
-        <v>-0.0009341825323148085</v>
+        <v>-0.05665906927189124</v>
       </c>
       <c r="E6">
-        <v>0.02180086176532748</v>
+        <v>0.005495416244360168</v>
       </c>
       <c r="F6">
-        <v>-0.01431482816699685</v>
+        <v>0.03326338622437653</v>
       </c>
       <c r="G6">
-        <v>0.007493289827137879</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.007511917483015463</v>
+      </c>
+      <c r="H6">
+        <v>0.06061634955712658</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01944568865131964</v>
+        <v>0.02372588288290237</v>
       </c>
       <c r="C7">
-        <v>0.007009510231072369</v>
+        <v>-0.0009377157895170777</v>
       </c>
       <c r="D7">
-        <v>-0.006938983623744316</v>
+        <v>-0.02930366283930004</v>
       </c>
       <c r="E7">
-        <v>0.02303929550485345</v>
+        <v>0.04311616392903562</v>
       </c>
       <c r="F7">
-        <v>-0.04861685003633513</v>
+        <v>0.009136828616291904</v>
       </c>
       <c r="G7">
-        <v>-0.06688461924944833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02035957100849603</v>
+      </c>
+      <c r="H7">
+        <v>0.03812390718009111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0158328851627158</v>
+        <v>0.006887546346560513</v>
       </c>
       <c r="C8">
-        <v>0.009546635635584598</v>
+        <v>0.002253015557150847</v>
       </c>
       <c r="D8">
-        <v>0.003176241188413729</v>
+        <v>-0.01120566759535454</v>
       </c>
       <c r="E8">
-        <v>0.03305193499628161</v>
+        <v>0.007037876453221231</v>
       </c>
       <c r="F8">
-        <v>-0.09530938302969001</v>
+        <v>0.02371310263877753</v>
       </c>
       <c r="G8">
-        <v>-0.05734359718635586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04188614263314054</v>
+      </c>
+      <c r="H8">
+        <v>0.03984031855461413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03336102837658334</v>
+        <v>0.03858474705793</v>
       </c>
       <c r="C9">
-        <v>0.008761648249622936</v>
+        <v>0.001017231058991498</v>
       </c>
       <c r="D9">
-        <v>0.01045437486514128</v>
+        <v>-0.03904924753304007</v>
       </c>
       <c r="E9">
-        <v>0.03391341677424162</v>
+        <v>0.01015817673003954</v>
       </c>
       <c r="F9">
-        <v>-0.0926201563116297</v>
+        <v>0.03266757360718521</v>
       </c>
       <c r="G9">
-        <v>-0.0554968968665672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04147059952998106</v>
+      </c>
+      <c r="H9">
+        <v>0.05363327311986853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03734573847437359</v>
+        <v>0.09742551445430016</v>
       </c>
       <c r="C10">
-        <v>-0.07897896278675463</v>
+        <v>0.009416798178418274</v>
       </c>
       <c r="D10">
-        <v>0.04930036635669408</v>
+        <v>0.169302065863207</v>
       </c>
       <c r="E10">
-        <v>-0.1322024413570334</v>
+        <v>-0.004283728766735021</v>
       </c>
       <c r="F10">
-        <v>-0.0490696491926067</v>
+        <v>-0.03136402660305067</v>
       </c>
       <c r="G10">
-        <v>0.005257505399153848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.034121735426248</v>
+      </c>
+      <c r="H10">
+        <v>0.008905425764402976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03268916654901984</v>
+        <v>0.02517324809276512</v>
       </c>
       <c r="C11">
-        <v>0.02811398231227238</v>
+        <v>0.01186066986971822</v>
       </c>
       <c r="D11">
-        <v>-0.004999805464678249</v>
+        <v>-0.04525271716312873</v>
       </c>
       <c r="E11">
-        <v>0.02668926858819674</v>
+        <v>-0.0003623761768057561</v>
       </c>
       <c r="F11">
-        <v>-0.04412059537204351</v>
+        <v>0.01658537291688983</v>
       </c>
       <c r="G11">
-        <v>-0.02410194508846857</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02370028969186353</v>
+      </c>
+      <c r="H11">
+        <v>0.05010986224328796</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03978445674748404</v>
+        <v>0.02932124099448589</v>
       </c>
       <c r="C12">
-        <v>0.02675568600895553</v>
+        <v>0.008393724448885951</v>
       </c>
       <c r="D12">
-        <v>0.00179355657030432</v>
+        <v>-0.0440155559972298</v>
       </c>
       <c r="E12">
-        <v>0.03646926186269825</v>
+        <v>0.008649393438615772</v>
       </c>
       <c r="F12">
-        <v>-0.02612038915860507</v>
+        <v>0.01830764341330642</v>
       </c>
       <c r="G12">
-        <v>-0.01055122098798561</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005184634198147572</v>
+      </c>
+      <c r="H12">
+        <v>0.02123306910460562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01455526560451871</v>
+        <v>0.03083998006939785</v>
       </c>
       <c r="C13">
-        <v>0.0190718412080383</v>
+        <v>-0.01213578827101348</v>
       </c>
       <c r="D13">
-        <v>0.01444207666349281</v>
+        <v>-0.01462285547795039</v>
       </c>
       <c r="E13">
-        <v>-0.008477613512399179</v>
+        <v>-0.009334855288838909</v>
       </c>
       <c r="F13">
-        <v>-0.08083347499586409</v>
+        <v>0.03166626507760627</v>
       </c>
       <c r="G13">
-        <v>-0.04562162066478782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.0570898485947532</v>
+      </c>
+      <c r="H13">
+        <v>0.07453782446577636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01533216733562016</v>
+        <v>0.0188230390034365</v>
       </c>
       <c r="C14">
-        <v>-0.001020311047554538</v>
+        <v>-0.0001388323327595555</v>
       </c>
       <c r="D14">
-        <v>0.0109794528187563</v>
+        <v>-0.01013655272179233</v>
       </c>
       <c r="E14">
-        <v>0.02885449537789551</v>
+        <v>0.01460390750310496</v>
       </c>
       <c r="F14">
-        <v>-0.05962078960306055</v>
+        <v>0.02076062031890849</v>
       </c>
       <c r="G14">
-        <v>-0.05663544298667518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04011464596040613</v>
+      </c>
+      <c r="H14">
+        <v>0.01207981244256997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.026779037544406</v>
+        <v>0.02572301332170275</v>
       </c>
       <c r="C16">
-        <v>0.02977420971339133</v>
+        <v>0.01139735818731911</v>
       </c>
       <c r="D16">
-        <v>-0.001563474449912458</v>
+        <v>-0.03747827199147553</v>
       </c>
       <c r="E16">
-        <v>0.02299845563352871</v>
+        <v>0.003084831712584664</v>
       </c>
       <c r="F16">
-        <v>-0.04863791091818134</v>
+        <v>0.02053701176199854</v>
       </c>
       <c r="G16">
-        <v>-0.02447269622547782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02011962394906492</v>
+      </c>
+      <c r="H16">
+        <v>0.03727193498555858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03318401447016966</v>
+        <v>0.03707371784896916</v>
       </c>
       <c r="C19">
-        <v>0.02495307628063406</v>
+        <v>0.001567845004357192</v>
       </c>
       <c r="D19">
-        <v>0.001107053515722122</v>
+        <v>-0.0303655513281044</v>
       </c>
       <c r="E19">
-        <v>0.01983603599555834</v>
+        <v>0.005723987038628701</v>
       </c>
       <c r="F19">
-        <v>-0.1027213327577705</v>
+        <v>0.03501831009538686</v>
       </c>
       <c r="G19">
-        <v>-0.07286033433766798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05684975159450263</v>
+      </c>
+      <c r="H19">
+        <v>0.06708449885506414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002670159609815664</v>
+        <v>0.01346737801461182</v>
       </c>
       <c r="C20">
-        <v>0.004607166593505959</v>
+        <v>-0.004346260317387314</v>
       </c>
       <c r="D20">
-        <v>0.006035649869623019</v>
+        <v>-0.01853841680635231</v>
       </c>
       <c r="E20">
-        <v>0.02040901887505976</v>
+        <v>0.006416945523148999</v>
       </c>
       <c r="F20">
-        <v>-0.07619648425597327</v>
+        <v>0.02356712630426223</v>
       </c>
       <c r="G20">
-        <v>-0.07812135795639762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05127179376878305</v>
+      </c>
+      <c r="H20">
+        <v>0.0292635355699058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003004918745748123</v>
+        <v>0.01802034460504923</v>
       </c>
       <c r="C21">
-        <v>-0.01628021686725951</v>
+        <v>-0.00617371616722091</v>
       </c>
       <c r="D21">
-        <v>-0.01547181229796666</v>
+        <v>-0.01745459019938948</v>
       </c>
       <c r="E21">
-        <v>0.0335192680264321</v>
+        <v>0.01968862421026512</v>
       </c>
       <c r="F21">
-        <v>-0.0428718836918083</v>
+        <v>0.01800642805887783</v>
       </c>
       <c r="G21">
-        <v>-0.02016302872204792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04568957755212574</v>
+      </c>
+      <c r="H21">
+        <v>0.04505459904873169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.028725366425838</v>
+        <v>0.02174295246415938</v>
       </c>
       <c r="C24">
-        <v>0.02517962842003948</v>
+        <v>0.005660486835652115</v>
       </c>
       <c r="D24">
-        <v>0.007749836060591053</v>
+        <v>-0.03946521745649543</v>
       </c>
       <c r="E24">
-        <v>0.009746902419947244</v>
+        <v>0.001348286896372387</v>
       </c>
       <c r="F24">
-        <v>-0.04453603245994942</v>
+        <v>0.01511190495151559</v>
       </c>
       <c r="G24">
-        <v>-0.02335138324846569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01557924900903937</v>
+      </c>
+      <c r="H24">
+        <v>0.04643245045682556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03020738802862644</v>
+        <v>0.03345090873966118</v>
       </c>
       <c r="C25">
-        <v>0.02093967706882678</v>
+        <v>0.003795955191206845</v>
       </c>
       <c r="D25">
-        <v>-0.007865353479524622</v>
+        <v>-0.03971634816585238</v>
       </c>
       <c r="E25">
-        <v>0.02692756275955014</v>
+        <v>0.004937958532659809</v>
       </c>
       <c r="F25">
-        <v>-0.05457386413091378</v>
+        <v>0.02341544914886073</v>
       </c>
       <c r="G25">
-        <v>-0.01197960780328584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01986898479909617</v>
+      </c>
+      <c r="H25">
+        <v>0.04447395705728254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02007426299456552</v>
+        <v>0.01832565499615846</v>
       </c>
       <c r="C26">
-        <v>0.01662713545977984</v>
+        <v>-0.0179373136857129</v>
       </c>
       <c r="D26">
-        <v>-0.02058980551692767</v>
+        <v>-0.006970131833711987</v>
       </c>
       <c r="E26">
-        <v>0.003000827263587194</v>
+        <v>-0.0006013064277704866</v>
       </c>
       <c r="F26">
-        <v>-0.06301241734474229</v>
+        <v>0.005876274629825942</v>
       </c>
       <c r="G26">
-        <v>-0.04882543500095303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03125718737979335</v>
+      </c>
+      <c r="H26">
+        <v>0.02488816758685405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05318658253337652</v>
+        <v>0.02206704279466804</v>
       </c>
       <c r="C27">
-        <v>0.0187188334455225</v>
+        <v>0.008282306032989316</v>
       </c>
       <c r="D27">
-        <v>0.03673121271727338</v>
+        <v>-0.01264110461072909</v>
       </c>
       <c r="E27">
-        <v>0.03243732596041802</v>
+        <v>0.00316574158964966</v>
       </c>
       <c r="F27">
-        <v>-0.04146783148445751</v>
+        <v>0.01543523960751775</v>
       </c>
       <c r="G27">
-        <v>-0.05436224401538783</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.007045729635036009</v>
+      </c>
+      <c r="H27">
+        <v>-0.004828199398421482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.0604951542953</v>
+        <v>0.1432209701783837</v>
       </c>
       <c r="C28">
-        <v>-0.1067637797759408</v>
+        <v>0.002339707493100108</v>
       </c>
       <c r="D28">
-        <v>0.07159872483505141</v>
+        <v>0.2281408785179957</v>
       </c>
       <c r="E28">
-        <v>-0.1628618201652123</v>
+        <v>0.002559810737577909</v>
       </c>
       <c r="F28">
-        <v>-0.04757381626937969</v>
+        <v>-0.03065944788523075</v>
       </c>
       <c r="G28">
-        <v>0.003792838905436551</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0253010800619394</v>
+      </c>
+      <c r="H28">
+        <v>0.0001568362069194508</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02017170168230362</v>
+        <v>0.02249920716378221</v>
       </c>
       <c r="C29">
-        <v>-0.0004511612980383823</v>
+        <v>0.001314432639128772</v>
       </c>
       <c r="D29">
-        <v>0.01219294428184553</v>
+        <v>-0.009948128218095672</v>
       </c>
       <c r="E29">
-        <v>0.03703607729740593</v>
+        <v>0.01515482881767573</v>
       </c>
       <c r="F29">
-        <v>-0.05683525674632317</v>
+        <v>0.02144980998763596</v>
       </c>
       <c r="G29">
-        <v>-0.04633276493690293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03840295480016701</v>
+      </c>
+      <c r="H29">
+        <v>0.003109704745724609</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08204132058566085</v>
+        <v>0.05935859253100026</v>
       </c>
       <c r="C30">
-        <v>0.05423014809329146</v>
+        <v>0.001298147630128438</v>
       </c>
       <c r="D30">
-        <v>0.02721163403082555</v>
+        <v>-0.08571000404351367</v>
       </c>
       <c r="E30">
-        <v>0.05370816649908674</v>
+        <v>-0.02973144989330119</v>
       </c>
       <c r="F30">
-        <v>-0.09810519600068626</v>
+        <v>0.06099684844935705</v>
       </c>
       <c r="G30">
-        <v>-0.06765344707676257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05051532926239826</v>
+      </c>
+      <c r="H30">
+        <v>0.07427353139142796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05805720904777224</v>
+        <v>0.05227469293705787</v>
       </c>
       <c r="C31">
-        <v>0.03089142517562702</v>
+        <v>0.01228195462945151</v>
       </c>
       <c r="D31">
-        <v>-0.004022869033205516</v>
+        <v>-0.02012017517395735</v>
       </c>
       <c r="E31">
-        <v>0.01092862876438523</v>
+        <v>-0.004114269553189771</v>
       </c>
       <c r="F31">
-        <v>-0.04783328308415074</v>
+        <v>0.008469981052722706</v>
       </c>
       <c r="G31">
-        <v>-0.05291118083097082</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01497207085766622</v>
+      </c>
+      <c r="H31">
+        <v>0.005595737688093922</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0145074497687401</v>
+        <v>0.01138100191014529</v>
       </c>
       <c r="C32">
-        <v>0.009953783223457947</v>
+        <v>0.01367178748247806</v>
       </c>
       <c r="D32">
-        <v>-0.006980724439814715</v>
+        <v>-0.009115650322655646</v>
       </c>
       <c r="E32">
-        <v>0.07191255979499565</v>
+        <v>0.03102405176449516</v>
       </c>
       <c r="F32">
-        <v>-0.07112773841851978</v>
+        <v>0.04432328448190669</v>
       </c>
       <c r="G32">
-        <v>-0.04744150982006376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02082986585054941</v>
+      </c>
+      <c r="H32">
+        <v>0.05478889529865978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04255286844262935</v>
+        <v>0.04118149974981582</v>
       </c>
       <c r="C33">
-        <v>0.03714040658314521</v>
+        <v>0.003055502073727122</v>
       </c>
       <c r="D33">
-        <v>-0.02763164421295235</v>
+        <v>-0.03665704996262404</v>
       </c>
       <c r="E33">
-        <v>0.02677053346672162</v>
+        <v>-0.02195865334921436</v>
       </c>
       <c r="F33">
-        <v>-0.08315846742439859</v>
+        <v>0.01087469265403174</v>
       </c>
       <c r="G33">
-        <v>-0.06785307230279228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04124581131235424</v>
+      </c>
+      <c r="H33">
+        <v>0.04588387549674913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02882312126836419</v>
+        <v>0.02993693685050683</v>
       </c>
       <c r="C34">
-        <v>0.02523869694801169</v>
+        <v>0.01940378194808407</v>
       </c>
       <c r="D34">
-        <v>0.001019268139426788</v>
+        <v>-0.03690565789540246</v>
       </c>
       <c r="E34">
-        <v>0.03131719159029406</v>
+        <v>0.01047322838013138</v>
       </c>
       <c r="F34">
-        <v>-0.05292455197944337</v>
+        <v>0.0210027700131346</v>
       </c>
       <c r="G34">
-        <v>-0.01704876264733458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01538229773212441</v>
+      </c>
+      <c r="H34">
+        <v>0.03646937786467384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01411440214286665</v>
+        <v>0.01957577920691433</v>
       </c>
       <c r="C36">
-        <v>0.0004456986713015793</v>
+        <v>-0.005148633374497247</v>
       </c>
       <c r="D36">
-        <v>-0.002067716941901314</v>
+        <v>-0.002782009977135157</v>
       </c>
       <c r="E36">
-        <v>0.02208284544184733</v>
+        <v>0.007355645708450915</v>
       </c>
       <c r="F36">
-        <v>-0.03694136856457697</v>
+        <v>0.007250759085402791</v>
       </c>
       <c r="G36">
-        <v>-0.03618792843209586</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.0171890968074427</v>
+      </c>
+      <c r="H36">
+        <v>0.01245900456535252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002187646958447036</v>
+        <v>0.02895736787846004</v>
       </c>
       <c r="C38">
-        <v>-0.005203761180919876</v>
+        <v>0.01760291378810568</v>
       </c>
       <c r="D38">
-        <v>-0.01828246504198485</v>
+        <v>-0.01078431987796044</v>
       </c>
       <c r="E38">
-        <v>-0.02928792219297201</v>
+        <v>-7.41122486291629e-05</v>
       </c>
       <c r="F38">
-        <v>-0.03858125233328475</v>
+        <v>0.01581067915078277</v>
       </c>
       <c r="G38">
-        <v>-0.01381462381046652</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01952267805564068</v>
+      </c>
+      <c r="H38">
+        <v>0.04448666495091956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03317048874066687</v>
+        <v>0.02322120434592181</v>
       </c>
       <c r="C39">
-        <v>0.04748833192395683</v>
+        <v>0.00797903705226982</v>
       </c>
       <c r="D39">
-        <v>0.003059895290230205</v>
+        <v>-0.0862588429291086</v>
       </c>
       <c r="E39">
-        <v>0.03390915905984784</v>
+        <v>-0.003200712045983583</v>
       </c>
       <c r="F39">
-        <v>-0.06374242628447742</v>
+        <v>0.02742692247605922</v>
       </c>
       <c r="G39">
-        <v>-0.03216924930921725</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03553189560463239</v>
+      </c>
+      <c r="H39">
+        <v>0.07701772613264128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03179382159032941</v>
+        <v>0.03270622518883454</v>
       </c>
       <c r="C40">
-        <v>0.06624332234346002</v>
+        <v>0.002294905243537829</v>
       </c>
       <c r="D40">
-        <v>0.02735259261640911</v>
+        <v>-0.0281331066574374</v>
       </c>
       <c r="E40">
-        <v>-0.01000241012378799</v>
+        <v>-0.02230879053668946</v>
       </c>
       <c r="F40">
-        <v>-0.08336590072716771</v>
+        <v>0.03978004793555264</v>
       </c>
       <c r="G40">
-        <v>-0.05605494185899413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01594705872674498</v>
+      </c>
+      <c r="H40">
+        <v>0.06634116887966372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001610393577828324</v>
+        <v>0.0102429820241741</v>
       </c>
       <c r="C41">
-        <v>-0.001712068487172833</v>
+        <v>-0.002468310518618949</v>
       </c>
       <c r="D41">
-        <v>-0.008070771479568676</v>
+        <v>0.01521260627257151</v>
       </c>
       <c r="E41">
-        <v>0.002450112470468328</v>
+        <v>-0.001425920806639706</v>
       </c>
       <c r="F41">
-        <v>-0.0159873210401173</v>
+        <v>-0.002286907708218037</v>
       </c>
       <c r="G41">
-        <v>-0.04801081093402176</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005317054871444836</v>
+      </c>
+      <c r="H41">
+        <v>-0.006386018329076603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3804123823149396</v>
+        <v>0.1908537412418932</v>
       </c>
       <c r="C42">
-        <v>-0.06696447404677384</v>
+        <v>-0.06096345616581684</v>
       </c>
       <c r="D42">
-        <v>-0.8034496705726312</v>
+        <v>-0.2542776877659335</v>
       </c>
       <c r="E42">
-        <v>-0.2610708187757377</v>
+        <v>-0.2094796574267002</v>
       </c>
       <c r="F42">
-        <v>0.2775286490649043</v>
+        <v>-0.9106437894182763</v>
       </c>
       <c r="G42">
-        <v>-0.148952259097023</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.05783704052537209</v>
+      </c>
+      <c r="H42">
+        <v>0.013790957956431</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0003710890180473783</v>
+        <v>0.0141296024427008</v>
       </c>
       <c r="C43">
-        <v>-0.002495495868983723</v>
+        <v>-0.002408450252682162</v>
       </c>
       <c r="D43">
-        <v>-0.01195396724169691</v>
+        <v>0.01545299080260591</v>
       </c>
       <c r="E43">
-        <v>0.002359756818571133</v>
+        <v>-0.004827516483198842</v>
       </c>
       <c r="F43">
-        <v>-0.03165812340684934</v>
+        <v>-0.004349832917432065</v>
       </c>
       <c r="G43">
-        <v>-0.04674005084116826</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006189785809732866</v>
+      </c>
+      <c r="H43">
+        <v>0.00767941096804559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01614411503484921</v>
+        <v>0.0220797319664475</v>
       </c>
       <c r="C44">
-        <v>0.001960926351851991</v>
+        <v>0.005701273735543757</v>
       </c>
       <c r="D44">
-        <v>-0.009825050801207193</v>
+        <v>-0.03057807500675266</v>
       </c>
       <c r="E44">
-        <v>-0.003067219705424669</v>
+        <v>0.006791155970647404</v>
       </c>
       <c r="F44">
-        <v>-0.107378846256657</v>
+        <v>0.009602018792298411</v>
       </c>
       <c r="G44">
-        <v>-0.08661253432256975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04040612794508896</v>
+      </c>
+      <c r="H44">
+        <v>0.06591760090822986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01984415862237153</v>
+        <v>0.01650082319919072</v>
       </c>
       <c r="C46">
-        <v>0.01792456976670801</v>
+        <v>-0.004446883045750439</v>
       </c>
       <c r="D46">
-        <v>-0.01011603441312159</v>
+        <v>-0.0118167864054707</v>
       </c>
       <c r="E46">
-        <v>0.03573087476275571</v>
+        <v>0.0004230252295319989</v>
       </c>
       <c r="F46">
-        <v>-0.07126221957183765</v>
+        <v>0.01749776332320021</v>
       </c>
       <c r="G46">
-        <v>-0.06024157535778011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04370169123384699</v>
+      </c>
+      <c r="H46">
+        <v>0.007500534574475437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09471801961440986</v>
+        <v>0.07624125996079596</v>
       </c>
       <c r="C47">
-        <v>0.03374433431281271</v>
+        <v>0.02929670025804502</v>
       </c>
       <c r="D47">
-        <v>0.0160601223097076</v>
+        <v>-0.04335052472160114</v>
       </c>
       <c r="E47">
-        <v>0.02843639708628503</v>
+        <v>0.0005024052007355444</v>
       </c>
       <c r="F47">
-        <v>-0.03065290182725759</v>
+        <v>0.01529365272761952</v>
       </c>
       <c r="G47">
-        <v>-0.08084272067427857</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.0113031459498117</v>
+      </c>
+      <c r="H47">
+        <v>-0.0219854819000317</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01491113332727366</v>
+        <v>0.02177247446713637</v>
       </c>
       <c r="C48">
-        <v>0.007782503435694242</v>
+        <v>0.005857563186613178</v>
       </c>
       <c r="D48">
-        <v>-0.009916531412182189</v>
+        <v>-0.008342462341258749</v>
       </c>
       <c r="E48">
-        <v>0.02114391798054894</v>
+        <v>0.0002093540066183085</v>
       </c>
       <c r="F48">
-        <v>-0.04397981960044101</v>
+        <v>0.01166055780497967</v>
       </c>
       <c r="G48">
-        <v>-0.02912877767485451</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02211901504053642</v>
+      </c>
+      <c r="H48">
+        <v>0.01789755412409775</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08523143010908164</v>
+        <v>0.07330665351353806</v>
       </c>
       <c r="C50">
-        <v>0.03190970518516759</v>
+        <v>0.02626025794744464</v>
       </c>
       <c r="D50">
-        <v>-0.006384726387795471</v>
+        <v>-0.04234914837696802</v>
       </c>
       <c r="E50">
-        <v>0.03742401959013912</v>
+        <v>0.01495330970430541</v>
       </c>
       <c r="F50">
-        <v>-0.04768580065207118</v>
+        <v>0.01170666341322539</v>
       </c>
       <c r="G50">
-        <v>-0.04121465728645086</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007507651257523483</v>
+      </c>
+      <c r="H50">
+        <v>-0.002505278423556437</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01546454061248877</v>
+        <v>0.02030704124264807</v>
       </c>
       <c r="C51">
-        <v>-0.007587827248343199</v>
+        <v>-0.0008096000923836624</v>
       </c>
       <c r="D51">
-        <v>0.004731027028904217</v>
+        <v>-0.001446454079107749</v>
       </c>
       <c r="E51">
-        <v>-0.01561017431567432</v>
+        <v>0.005762005209230802</v>
       </c>
       <c r="F51">
-        <v>-0.08928696072374429</v>
+        <v>0.006778711921406167</v>
       </c>
       <c r="G51">
-        <v>-0.06032099317491277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04497360444074403</v>
+      </c>
+      <c r="H51">
+        <v>0.04988807462493475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1004867782583171</v>
+        <v>0.09459100481327749</v>
       </c>
       <c r="C53">
-        <v>0.04302324773863836</v>
+        <v>0.03730407770269017</v>
       </c>
       <c r="D53">
-        <v>0.01208165642817393</v>
+        <v>-0.07711195183336046</v>
       </c>
       <c r="E53">
-        <v>0.04824779709529427</v>
+        <v>0.002896378113223512</v>
       </c>
       <c r="F53">
-        <v>0.02566106334883006</v>
+        <v>0.02961644751602147</v>
       </c>
       <c r="G53">
-        <v>-0.0162655975115368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04958527826315685</v>
+      </c>
+      <c r="H53">
+        <v>-0.04054732102214304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02200560166937517</v>
+        <v>0.02616125134997761</v>
       </c>
       <c r="C54">
-        <v>-0.0008641929150355656</v>
+        <v>0.009446165941145999</v>
       </c>
       <c r="D54">
-        <v>0.01842118100340226</v>
+        <v>0.01014512732281607</v>
       </c>
       <c r="E54">
-        <v>0.03513472778014417</v>
+        <v>0.008183458555032587</v>
       </c>
       <c r="F54">
-        <v>-0.05134565119429197</v>
+        <v>0.01515046129017469</v>
       </c>
       <c r="G54">
-        <v>-0.05939480374480161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03795548721813367</v>
+      </c>
+      <c r="H54">
+        <v>-0.005266518699750265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1008773074828651</v>
+        <v>0.07911501051420171</v>
       </c>
       <c r="C55">
-        <v>0.02480031742013782</v>
+        <v>0.03300506281736586</v>
       </c>
       <c r="D55">
-        <v>0.009749845898194737</v>
+        <v>-0.07274200856380067</v>
       </c>
       <c r="E55">
-        <v>0.06706912269523421</v>
+        <v>0.01103677033146921</v>
       </c>
       <c r="F55">
-        <v>0.01913141965060439</v>
+        <v>0.0224998434148253</v>
       </c>
       <c r="G55">
-        <v>-0.05706405542965974</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02311131202144282</v>
+      </c>
+      <c r="H55">
+        <v>-0.05025155771098571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1419623547083279</v>
+        <v>0.1281403462036237</v>
       </c>
       <c r="C56">
-        <v>0.06046620837624091</v>
+        <v>0.05540142169642817</v>
       </c>
       <c r="D56">
-        <v>0.05613145570759583</v>
+        <v>-0.09276075672815057</v>
       </c>
       <c r="E56">
-        <v>0.06914072902494264</v>
+        <v>0.0009557257689684027</v>
       </c>
       <c r="F56">
-        <v>0.06185085524231133</v>
+        <v>0.04951410129204861</v>
       </c>
       <c r="G56">
-        <v>0.03207617131564868</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08782471009659611</v>
+      </c>
+      <c r="H56">
+        <v>-0.06669373855820245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04444832585766686</v>
+        <v>0.03764460847234383</v>
       </c>
       <c r="C57">
-        <v>0.01654294809344712</v>
+        <v>-0.01116669107136776</v>
       </c>
       <c r="D57">
-        <v>-0.01406694594420005</v>
+        <v>-0.03243003912748751</v>
       </c>
       <c r="E57">
-        <v>-0.01481770745576769</v>
+        <v>-0.00804838097395167</v>
       </c>
       <c r="F57">
-        <v>-0.05545361991096769</v>
+        <v>0.01711419030549547</v>
       </c>
       <c r="G57">
-        <v>-0.05785829532670825</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06640756488639231</v>
+      </c>
+      <c r="H57">
+        <v>0.05247758677220209</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2042878894193535</v>
+        <v>0.157125553743391</v>
       </c>
       <c r="C58">
-        <v>0.1320710413946755</v>
+        <v>0.05229264205496037</v>
       </c>
       <c r="D58">
-        <v>-0.06206561400283759</v>
+        <v>-0.1553640385795075</v>
       </c>
       <c r="E58">
-        <v>0.09609728560586382</v>
+        <v>-0.1767129625138014</v>
       </c>
       <c r="F58">
-        <v>-0.4051317073932215</v>
+        <v>0.04388190224000296</v>
       </c>
       <c r="G58">
-        <v>-0.06725117548301962</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8248644548382059</v>
+      </c>
+      <c r="H58">
+        <v>-0.3718350977298698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05445040193518608</v>
+        <v>0.1575132156068839</v>
       </c>
       <c r="C59">
-        <v>-0.05735573097866222</v>
+        <v>0.01187388049298729</v>
       </c>
       <c r="D59">
-        <v>0.0889502198676098</v>
+        <v>0.2275804134805667</v>
       </c>
       <c r="E59">
-        <v>-0.158322330756128</v>
+        <v>-0.0168601524528592</v>
       </c>
       <c r="F59">
-        <v>-0.06555206977519809</v>
+        <v>-0.00330576048072908</v>
       </c>
       <c r="G59">
-        <v>0.02440844325888027</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0228119223217431</v>
+      </c>
+      <c r="H59">
+        <v>0.03434029431834148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1520250113888036</v>
+        <v>0.1841759398615862</v>
       </c>
       <c r="C60">
-        <v>0.09687522458331793</v>
+        <v>0.03172669225552316</v>
       </c>
       <c r="D60">
-        <v>-0.02416301327343556</v>
+        <v>-0.0254113661861047</v>
       </c>
       <c r="E60">
-        <v>-0.09607851422690246</v>
+        <v>-0.0484111580303663</v>
       </c>
       <c r="F60">
-        <v>-0.1824149267461729</v>
+        <v>0.06086708966911763</v>
       </c>
       <c r="G60">
-        <v>0.2932881895552688</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01745865224622163</v>
+      </c>
+      <c r="H60">
+        <v>0.3781557578456577</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02005207460631329</v>
+        <v>0.02678376290463842</v>
       </c>
       <c r="C61">
-        <v>0.02409863582251466</v>
+        <v>0.01106087136351725</v>
       </c>
       <c r="D61">
-        <v>-0.007268437253463268</v>
+        <v>-0.05275064467959276</v>
       </c>
       <c r="E61">
-        <v>0.01905709629851326</v>
+        <v>0.004593805996665941</v>
       </c>
       <c r="F61">
-        <v>-0.03049656846806598</v>
+        <v>0.02673405422343452</v>
       </c>
       <c r="G61">
-        <v>-0.01607822480619698</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01837939600772126</v>
+      </c>
+      <c r="H61">
+        <v>0.05728215639276401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009212706238999396</v>
+        <v>0.0135025159599634</v>
       </c>
       <c r="C63">
-        <v>0.01513690219018389</v>
+        <v>-0.0015315146907135</v>
       </c>
       <c r="D63">
-        <v>-0.0153467523405229</v>
+        <v>-0.01943042526622553</v>
       </c>
       <c r="E63">
-        <v>0.02635013103967144</v>
+        <v>0.005335174183188001</v>
       </c>
       <c r="F63">
-        <v>-0.01467393413005665</v>
+        <v>0.01380906425730688</v>
       </c>
       <c r="G63">
-        <v>-0.07273889218185807</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01476166939534083</v>
+      </c>
+      <c r="H63">
+        <v>0.01039701798638279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03618750145959599</v>
+        <v>0.0427038388050491</v>
       </c>
       <c r="C64">
-        <v>-0.001746029200882208</v>
+        <v>0.01099746465068718</v>
       </c>
       <c r="D64">
-        <v>0.01035295795385507</v>
+        <v>-0.03528986099827814</v>
       </c>
       <c r="E64">
-        <v>0.05298072723381091</v>
+        <v>0.01165844333873725</v>
       </c>
       <c r="F64">
-        <v>-0.03741792332379167</v>
+        <v>0.007745798003438597</v>
       </c>
       <c r="G64">
-        <v>-0.05507494607318665</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0001372074316178712</v>
+      </c>
+      <c r="H64">
+        <v>0.0382093129311499</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03026518494491865</v>
+        <v>0.0372570650236828</v>
       </c>
       <c r="C65">
-        <v>0.01279213506301854</v>
+        <v>0.0009544243698420091</v>
       </c>
       <c r="D65">
-        <v>-0.00149482733645547</v>
+        <v>-0.06583538025433515</v>
       </c>
       <c r="E65">
-        <v>0.02394923119112708</v>
+        <v>0.009137827851459593</v>
       </c>
       <c r="F65">
-        <v>-0.009743018040947484</v>
+        <v>0.03667073807431786</v>
       </c>
       <c r="G65">
-        <v>0.01410069472929867</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.002979193849722951</v>
+      </c>
+      <c r="H65">
+        <v>0.07168819980178004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03262220052927617</v>
+        <v>0.03244058050310979</v>
       </c>
       <c r="C66">
-        <v>0.05733132303885135</v>
+        <v>0.01471963286256415</v>
       </c>
       <c r="D66">
-        <v>-0.000127333231025997</v>
+        <v>-0.1053050503415275</v>
       </c>
       <c r="E66">
-        <v>0.03892524589624306</v>
+        <v>-0.004800759090216716</v>
       </c>
       <c r="F66">
-        <v>-0.05155975585363624</v>
+        <v>0.04698625127046666</v>
       </c>
       <c r="G66">
-        <v>-0.0137772201122766</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02919071089979008</v>
+      </c>
+      <c r="H66">
+        <v>0.08211325127897721</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0121980870652796</v>
+        <v>0.04863649972846797</v>
       </c>
       <c r="C67">
-        <v>0.002752319413220712</v>
+        <v>0.019995207463116</v>
       </c>
       <c r="D67">
-        <v>-0.01221493951702012</v>
+        <v>-0.01157928053034959</v>
       </c>
       <c r="E67">
-        <v>-0.0347069960958989</v>
+        <v>-0.004068244922121366</v>
       </c>
       <c r="F67">
-        <v>-0.02093264748730439</v>
+        <v>0.02416655634412471</v>
       </c>
       <c r="G67">
-        <v>-0.002669169201427493</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.005264197897814208</v>
+      </c>
+      <c r="H67">
+        <v>0.04342748639906344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07190792600786043</v>
+        <v>0.1486359589962211</v>
       </c>
       <c r="C68">
-        <v>-0.083291496752919</v>
+        <v>-0.01205765098912743</v>
       </c>
       <c r="D68">
-        <v>0.09584379540000829</v>
+        <v>0.2388059915330489</v>
       </c>
       <c r="E68">
-        <v>-0.1569056098655767</v>
+        <v>-0.01112024596472033</v>
       </c>
       <c r="F68">
-        <v>-0.05944392599376083</v>
+        <v>-0.03942886625268315</v>
       </c>
       <c r="G68">
-        <v>0.06635879821455822</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0398112997727612</v>
+      </c>
+      <c r="H68">
+        <v>-0.03519609627082719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06763212493689687</v>
+        <v>0.06221074399803547</v>
       </c>
       <c r="C69">
-        <v>0.04050767722508539</v>
+        <v>0.02930528396967029</v>
       </c>
       <c r="D69">
-        <v>0.02120725721729072</v>
+        <v>-0.0414750245782169</v>
       </c>
       <c r="E69">
-        <v>0.01423370958565894</v>
+        <v>-4.664145792021007e-05</v>
       </c>
       <c r="F69">
-        <v>-0.01556185956490537</v>
+        <v>0.0261585421684228</v>
       </c>
       <c r="G69">
-        <v>-0.07876086419062236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01911835793345586</v>
+      </c>
+      <c r="H69">
+        <v>0.004953304309316426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07485668950017152</v>
+        <v>0.1425910043319272</v>
       </c>
       <c r="C71">
-        <v>-0.08619247218934097</v>
+        <v>-0.0002865259470010765</v>
       </c>
       <c r="D71">
-        <v>0.0785409974676558</v>
+        <v>0.2064954915599967</v>
       </c>
       <c r="E71">
-        <v>-0.2176296799902727</v>
+        <v>-0.01773056945196649</v>
       </c>
       <c r="F71">
-        <v>-0.05107543432803467</v>
+        <v>-0.04406572101663819</v>
       </c>
       <c r="G71">
-        <v>-0.002597698145950821</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03730386994009018</v>
+      </c>
+      <c r="H71">
+        <v>-0.0177583236049907</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.107544332683825</v>
+        <v>0.08008651034502239</v>
       </c>
       <c r="C72">
-        <v>0.07437190800377017</v>
+        <v>0.03975813761629476</v>
       </c>
       <c r="D72">
-        <v>0.06420723795395092</v>
+        <v>-0.07273457232670333</v>
       </c>
       <c r="E72">
-        <v>0.0290678057741646</v>
+        <v>-0.0149144517050085</v>
       </c>
       <c r="F72">
-        <v>-0.09322846208451399</v>
+        <v>0.08007201319846019</v>
       </c>
       <c r="G72">
-        <v>0.08193274608264219</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01063588495622758</v>
+      </c>
+      <c r="H72">
+        <v>0.1284523377178335</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2281873757867475</v>
+        <v>0.2532045800642959</v>
       </c>
       <c r="C73">
-        <v>0.1386536224213986</v>
+        <v>0.04615521119377159</v>
       </c>
       <c r="D73">
-        <v>-0.02522309897568226</v>
+        <v>-0.08486292997365061</v>
       </c>
       <c r="E73">
-        <v>-0.181496340266262</v>
+        <v>-0.08641338117917598</v>
       </c>
       <c r="F73">
-        <v>-0.2213062108940711</v>
+        <v>0.07405965415191117</v>
       </c>
       <c r="G73">
-        <v>0.4225414397963809</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.02237364855848836</v>
+      </c>
+      <c r="H73">
+        <v>0.4887805268202713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.13376922514866</v>
+        <v>0.1235243943693213</v>
       </c>
       <c r="C74">
-        <v>0.0329973126090144</v>
+        <v>0.0542913448397702</v>
       </c>
       <c r="D74">
-        <v>0.0224381035571011</v>
+        <v>-0.1007332891302962</v>
       </c>
       <c r="E74">
-        <v>0.03707314900178203</v>
+        <v>0.003961263570335021</v>
       </c>
       <c r="F74">
-        <v>0.07346457922297656</v>
+        <v>0.03525226803387617</v>
       </c>
       <c r="G74">
-        <v>0.01156663437984238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07518978210917919</v>
+      </c>
+      <c r="H74">
+        <v>-0.03638636814434543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2247006371413816</v>
+        <v>0.2330543972007826</v>
       </c>
       <c r="C75">
-        <v>0.09685430849294625</v>
+        <v>0.1013299105966387</v>
       </c>
       <c r="D75">
-        <v>0.1009346786108602</v>
+        <v>-0.1531662829704616</v>
       </c>
       <c r="E75">
-        <v>0.1038146627052799</v>
+        <v>-0.01239554850847894</v>
       </c>
       <c r="F75">
-        <v>0.0818413957600703</v>
+        <v>0.09520172149653452</v>
       </c>
       <c r="G75">
-        <v>0.003759804543666442</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1513010972293729</v>
+      </c>
+      <c r="H75">
+        <v>-0.148790185207773</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2694159234068568</v>
+        <v>0.2043768962097765</v>
       </c>
       <c r="C76">
-        <v>0.08652756834391363</v>
+        <v>0.09405067719740162</v>
       </c>
       <c r="D76">
-        <v>0.1511629339972257</v>
+        <v>-0.1453086891469071</v>
       </c>
       <c r="E76">
-        <v>0.135167777095983</v>
+        <v>0.03321248751278816</v>
       </c>
       <c r="F76">
-        <v>0.1665709520646744</v>
+        <v>0.08868097176712679</v>
       </c>
       <c r="G76">
-        <v>0.01366710414257822</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1479980987604121</v>
+      </c>
+      <c r="H76">
+        <v>-0.1479340592387603</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.122292458242251</v>
+        <v>0.0743978379494239</v>
       </c>
       <c r="C77">
-        <v>0.05053888578044655</v>
+        <v>0.01359974362607957</v>
       </c>
       <c r="D77">
-        <v>-0.06337886024829394</v>
+        <v>-0.06897607200286972</v>
       </c>
       <c r="E77">
-        <v>0.04786996884311593</v>
+        <v>-0.009708219777630605</v>
       </c>
       <c r="F77">
-        <v>-0.1733246110037221</v>
+        <v>4.861529419411108e-05</v>
       </c>
       <c r="G77">
-        <v>-0.2199971536961986</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08526902973236887</v>
+      </c>
+      <c r="H77">
+        <v>0.009299248575984067</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07237704330390751</v>
+        <v>0.04599602769021073</v>
       </c>
       <c r="C78">
-        <v>0.04534855603450581</v>
+        <v>0.01466863214147224</v>
       </c>
       <c r="D78">
-        <v>-0.01996092020226873</v>
+        <v>-0.05967092766291005</v>
       </c>
       <c r="E78">
-        <v>0.07485696715952202</v>
+        <v>0.003538306980956559</v>
       </c>
       <c r="F78">
-        <v>-0.1019404445779531</v>
+        <v>0.0333288370748038</v>
       </c>
       <c r="G78">
-        <v>-0.04299622164840396</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05864685815133732</v>
+      </c>
+      <c r="H78">
+        <v>0.07422779540096992</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2511883167132162</v>
+        <v>0.1452481590288676</v>
       </c>
       <c r="C80">
-        <v>-0.84330717772046</v>
+        <v>0.03666274363754249</v>
       </c>
       <c r="D80">
-        <v>-0.01320482226035647</v>
+        <v>-0.05932223761310361</v>
       </c>
       <c r="E80">
-        <v>0.4051232688104365</v>
+        <v>0.944028123218996</v>
       </c>
       <c r="F80">
-        <v>-0.1020566541926619</v>
+        <v>-0.1908725209794874</v>
       </c>
       <c r="G80">
-        <v>0.1338389187969118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1495766874637838</v>
+      </c>
+      <c r="H80">
+        <v>0.01621567314367924</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1706342883668796</v>
+        <v>0.1553639213116585</v>
       </c>
       <c r="C81">
-        <v>0.06356230714822951</v>
+        <v>0.06604596539024099</v>
       </c>
       <c r="D81">
-        <v>0.09873143343034588</v>
+        <v>-0.09511362424583962</v>
       </c>
       <c r="E81">
-        <v>0.07937722842538335</v>
+        <v>0.008635318645892403</v>
       </c>
       <c r="F81">
-        <v>0.1082853197422582</v>
+        <v>0.06118521413630378</v>
       </c>
       <c r="G81">
-        <v>0.03952627741297218</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.09982885420477002</v>
+      </c>
+      <c r="H81">
+        <v>-0.09596486523020502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0359135021511679</v>
+        <v>0.03498893170036762</v>
       </c>
       <c r="C83">
-        <v>0.03263281324383283</v>
+        <v>0.007008069874217682</v>
       </c>
       <c r="D83">
-        <v>-0.02027917018207399</v>
+        <v>-0.02313960989276909</v>
       </c>
       <c r="E83">
-        <v>0.004327145571578296</v>
+        <v>-0.007760772505184269</v>
       </c>
       <c r="F83">
-        <v>-0.05672629337714472</v>
+        <v>0.01629753702928369</v>
       </c>
       <c r="G83">
-        <v>-0.04381640497722764</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04549548042677432</v>
+      </c>
+      <c r="H83">
+        <v>0.03938418635839608</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.248839254919772</v>
+        <v>0.2212144221018371</v>
       </c>
       <c r="C85">
-        <v>0.09300054795119252</v>
+        <v>0.08574508869657146</v>
       </c>
       <c r="D85">
-        <v>0.1117994479958826</v>
+        <v>-0.1582475457952386</v>
       </c>
       <c r="E85">
-        <v>0.1039034565222802</v>
+        <v>-0.00623307895172045</v>
       </c>
       <c r="F85">
-        <v>0.1077463335476318</v>
+        <v>0.07872050850681693</v>
       </c>
       <c r="G85">
-        <v>-0.0254308018746204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1635835490803391</v>
+      </c>
+      <c r="H85">
+        <v>-0.1133427381483424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005646695543325492</v>
+        <v>0.02820444561465599</v>
       </c>
       <c r="C86">
-        <v>-0.001770411509433448</v>
+        <v>0.003573361195821471</v>
       </c>
       <c r="D86">
-        <v>-0.01992802404098621</v>
+        <v>-0.02902944722147192</v>
       </c>
       <c r="E86">
-        <v>0.04014130292174653</v>
+        <v>-0.003721719393719707</v>
       </c>
       <c r="F86">
-        <v>-0.06962463712676475</v>
+        <v>0.004584906934540185</v>
       </c>
       <c r="G86">
-        <v>-0.04484520308884757</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.07672695669496052</v>
+      </c>
+      <c r="H86">
+        <v>0.09999719036642764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04076236553697767</v>
+        <v>0.02950620477255821</v>
       </c>
       <c r="C87">
-        <v>-0.001901061939404793</v>
+        <v>0.004610244946927852</v>
       </c>
       <c r="D87">
-        <v>-0.01332038539291415</v>
+        <v>-0.04367139252029132</v>
       </c>
       <c r="E87">
-        <v>0.01347722287691618</v>
+        <v>0.008386356551297781</v>
       </c>
       <c r="F87">
-        <v>-0.1115370878860756</v>
+        <v>0.01842166358856907</v>
       </c>
       <c r="G87">
-        <v>-0.05040982365512608</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07938689875025169</v>
+      </c>
+      <c r="H87">
+        <v>0.08001481559112068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01115548952255145</v>
+        <v>0.03901210868905244</v>
       </c>
       <c r="C88">
-        <v>-0.01493605856797203</v>
+        <v>-0.0104237938125359</v>
       </c>
       <c r="D88">
-        <v>0.01411354691400649</v>
+        <v>-0.01669261710488737</v>
       </c>
       <c r="E88">
-        <v>0.01403269104373711</v>
+        <v>0.01105279709840305</v>
       </c>
       <c r="F88">
-        <v>0.003569212672037282</v>
+        <v>0.0156299296391312</v>
       </c>
       <c r="G88">
-        <v>-0.05072394470397323</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.00666729654735977</v>
+      </c>
+      <c r="H88">
+        <v>0.01862981322228082</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1072499818021584</v>
+        <v>0.2455534979203699</v>
       </c>
       <c r="C89">
-        <v>-0.1159890407200999</v>
+        <v>-0.0025282967772436</v>
       </c>
       <c r="D89">
-        <v>0.127336773247171</v>
+        <v>0.3601272397793561</v>
       </c>
       <c r="E89">
-        <v>-0.2578721940400189</v>
+        <v>-0.02545516385908332</v>
       </c>
       <c r="F89">
-        <v>-0.09111991597616299</v>
+        <v>-0.02624754700666631</v>
       </c>
       <c r="G89">
-        <v>0.02115495222819812</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0008521168128637347</v>
+      </c>
+      <c r="H89">
+        <v>0.01101653453754381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09169532863410394</v>
+        <v>0.1954337932469719</v>
       </c>
       <c r="C90">
-        <v>-0.1640132832313111</v>
+        <v>-0.004349800693244013</v>
       </c>
       <c r="D90">
-        <v>0.1485275700483197</v>
+        <v>0.3200769549304033</v>
       </c>
       <c r="E90">
-        <v>-0.2802551929456693</v>
+        <v>-0.01809816570556197</v>
       </c>
       <c r="F90">
-        <v>-0.035260023062244</v>
+        <v>-0.05678615281873074</v>
       </c>
       <c r="G90">
-        <v>-0.01058309031876923</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.005890828188246379</v>
+      </c>
+      <c r="H90">
+        <v>-0.04912658647483911</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3016082017075619</v>
+        <v>0.2352139922444809</v>
       </c>
       <c r="C91">
-        <v>0.1199344187039555</v>
+        <v>0.09889045569889167</v>
       </c>
       <c r="D91">
-        <v>0.111815514345424</v>
+        <v>-0.1369337290661611</v>
       </c>
       <c r="E91">
-        <v>0.1071421225286647</v>
+        <v>-0.01236689956075804</v>
       </c>
       <c r="F91">
-        <v>0.222395505842977</v>
+        <v>0.07620397617637889</v>
       </c>
       <c r="G91">
-        <v>0.04096742163235528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1758118960881939</v>
+      </c>
+      <c r="H91">
+        <v>-0.1916496789374638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1708405226726726</v>
+        <v>0.247582189798629</v>
       </c>
       <c r="C92">
-        <v>-0.1248421082739513</v>
+        <v>0.06265014201531749</v>
       </c>
       <c r="D92">
-        <v>0.327707819202141</v>
+        <v>0.2566350764449698</v>
       </c>
       <c r="E92">
-        <v>-0.3060957073830587</v>
+        <v>-0.004522949095041318</v>
       </c>
       <c r="F92">
-        <v>0.1737232510737602</v>
+        <v>0.004324505711206366</v>
       </c>
       <c r="G92">
-        <v>-0.5176741066184692</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.002393443949825721</v>
+      </c>
+      <c r="H92">
+        <v>-0.1339867183642567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09277593917203471</v>
+        <v>0.2191578190965843</v>
       </c>
       <c r="C93">
-        <v>-0.1542894542849959</v>
+        <v>0.004970578353955769</v>
       </c>
       <c r="D93">
-        <v>0.1770947182935856</v>
+        <v>0.3373440678502367</v>
       </c>
       <c r="E93">
-        <v>-0.4014032346580811</v>
+        <v>-0.03976109363306244</v>
       </c>
       <c r="F93">
-        <v>0.0001008301574954433</v>
+        <v>-0.05893607292065451</v>
       </c>
       <c r="G93">
-        <v>0.07041871213908248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.002076436465456512</v>
+      </c>
+      <c r="H93">
+        <v>0.007665319345424797</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.295194711709058</v>
+        <v>0.2589722439662768</v>
       </c>
       <c r="C94">
-        <v>0.149903387482628</v>
+        <v>0.0875041612892493</v>
       </c>
       <c r="D94">
-        <v>0.2049652700650347</v>
+        <v>-0.1294576242653636</v>
       </c>
       <c r="E94">
-        <v>0.1217111590234252</v>
+        <v>-0.02802482602837168</v>
       </c>
       <c r="F94">
-        <v>0.1788655453933166</v>
+        <v>0.123660461471492</v>
       </c>
       <c r="G94">
-        <v>0.04926140992746921</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1736808368630733</v>
+      </c>
+      <c r="H94">
+        <v>-0.2336710440636797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05492711410268071</v>
+        <v>0.05972895605643407</v>
       </c>
       <c r="C95">
-        <v>0.05307664325623975</v>
+        <v>0.03470822860541102</v>
       </c>
       <c r="D95">
-        <v>-0.03801124004193992</v>
+        <v>-0.08692147201488057</v>
       </c>
       <c r="E95">
-        <v>0.07150341180902578</v>
+        <v>-0.07915935793557356</v>
       </c>
       <c r="F95">
-        <v>-0.05855142259960893</v>
+        <v>0.008469564799688916</v>
       </c>
       <c r="G95">
-        <v>-0.2072421490839532</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05231236400971157</v>
+      </c>
+      <c r="H95">
+        <v>0.05008025430243262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1720692625723639</v>
+        <v>0.1868966799839318</v>
       </c>
       <c r="C98">
-        <v>0.0670501693788198</v>
+        <v>0.06288684996496094</v>
       </c>
       <c r="D98">
-        <v>-0.04552616910548166</v>
+        <v>-0.03939887447218154</v>
       </c>
       <c r="E98">
-        <v>-0.1261105398862165</v>
+        <v>-0.05232012401910589</v>
       </c>
       <c r="F98">
-        <v>-0.1305812490052022</v>
+        <v>0.02842983330371968</v>
       </c>
       <c r="G98">
-        <v>0.3390484295701588</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05724749660893883</v>
+      </c>
+      <c r="H98">
+        <v>0.3482224212107891</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00571358247677321</v>
+        <v>0.01620962076666178</v>
       </c>
       <c r="C101">
-        <v>0.01338861791577549</v>
+        <v>-1.018480125778953e-05</v>
       </c>
       <c r="D101">
-        <v>-0.001922558686573786</v>
+        <v>-0.01229990878865941</v>
       </c>
       <c r="E101">
-        <v>0.07386654617365171</v>
+        <v>0.007176553582238214</v>
       </c>
       <c r="F101">
-        <v>-0.1664160628698084</v>
+        <v>0.03014553427134928</v>
       </c>
       <c r="G101">
-        <v>-0.1207007593858362</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1062631564925505</v>
+      </c>
+      <c r="H101">
+        <v>-0.02163917222647373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1145735279841841</v>
+        <v>0.106986865371973</v>
       </c>
       <c r="C102">
-        <v>0.0511998409126149</v>
+        <v>0.03427604314350506</v>
       </c>
       <c r="D102">
-        <v>0.03864562574031372</v>
+        <v>-0.07763783914138256</v>
       </c>
       <c r="E102">
-        <v>0.07679866816894304</v>
+        <v>-0.0003754487189563794</v>
       </c>
       <c r="F102">
-        <v>0.08349735215710381</v>
+        <v>0.04249903777239043</v>
       </c>
       <c r="G102">
-        <v>0.007005143706896554</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09124833480747949</v>
+      </c>
+      <c r="H102">
+        <v>-0.07810416673203274</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03266500374285479</v>
+        <v>0.01633160724126242</v>
       </c>
       <c r="C103">
-        <v>-0.001781429328795491</v>
+        <v>0.00621467928478656</v>
       </c>
       <c r="D103">
-        <v>0.01180910745968607</v>
+        <v>-0.01524243690956854</v>
       </c>
       <c r="E103">
-        <v>0.04199625560815101</v>
+        <v>0.009228847661176091</v>
       </c>
       <c r="F103">
-        <v>-0.004252112399936824</v>
+        <v>0.007887397235438964</v>
       </c>
       <c r="G103">
-        <v>-0.009843415858044414</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0001861057293241369</v>
+      </c>
+      <c r="H103">
+        <v>-0.0126541549274646</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2177943145603474</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9555836009228397</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.09971206350486687</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0267636455506624</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1283278795832682</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03334129857278469</v>
+      </c>
+      <c r="H104">
+        <v>-0.05275800893335516</v>
       </c>
     </row>
   </sheetData>
